--- a/HT36C/Tables/Table 5.xlsx
+++ b/HT36C/Tables/Table 5.xlsx
@@ -162,7 +162,7 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">

--- a/HT36C/Tables/Table 5.xlsx
+++ b/HT36C/Tables/Table 5.xlsx
@@ -85,8 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -162,20 +163,20 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -518,16 +519,16 @@
       <c r="O2" s="10">
         <v>2417.73779</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>0.91534893</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>14.7795339</v>
       </c>
       <c r="R2" s="10">
         <v>2216.17808</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>31.316388</v>
       </c>
       <c r="T2" s="4"/>
@@ -554,7 +555,7 @@
       <c r="C3" s="7">
         <v>0.01698641</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>51.6</v>
       </c>
       <c r="E3" s="12">
@@ -588,19 +589,19 @@
         <v>1619.64748</v>
       </c>
       <c r="O3" s="10">
-        <v>2355.7445</v>
+        <v>1570.4963</v>
       </c>
-      <c r="P3" s="11">
-        <v>1.2373932</v>
+      <c r="P3" s="10">
+        <v>0.8249288</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>20.5763405</v>
       </c>
       <c r="R3" s="10">
-        <v>1551.0159</v>
+        <v>1034.0106</v>
       </c>
-      <c r="S3" s="11">
-        <v>23.2597414</v>
+      <c r="S3" s="10">
+        <v>15.9781431</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
